--- a/doc/【保利美华】江森BA物模型反馈表(20190909).xlsx
+++ b/doc/【保利美华】江森BA物模型反馈表(20190909).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1299E64C-49F5-5B4F-9139-F10518587641}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C2AD229-2513-374A-AAF2-968A948E2618}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23220" windowHeight="13060" tabRatio="951" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电梯" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="风机" sheetId="17" r:id="rId5"/>
     <sheet name="环境监测传感器" sheetId="27" r:id="rId6"/>
     <sheet name="冷源系统接口" sheetId="26" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="30" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="364">
   <si>
     <t>字段名</t>
   </si>
@@ -2378,6 +2380,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>以冷源系统厂家接口所提供数据为准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>风机设备过载跳闸</t>
     <rPh sb="0" eb="1">
       <t>mq</t>
@@ -2519,14 +2525,6 @@
   </si>
   <si>
     <t>0―500</t>
-  </si>
-  <si>
-    <t>厂商反馈是否能实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2659,7 +2657,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2684,14 +2682,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2714,11 +2706,309 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2732,6 +3022,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2739,96 +3032,292 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3168,40 +3657,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="25.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.25" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" ht="19.25" customHeight="1">
+      <c r="A1" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3222,792 +3707,654 @@
       <c r="G2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17">
-      <c r="A12" s="7" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17">
-      <c r="A13" s="7" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="1:10" ht="17">
-      <c r="A19" s="27" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="17">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="17">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" thickBot="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1"/>
+    <row r="22" spans="1:9" ht="17">
+      <c r="A22" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="1:10" ht="18">
-      <c r="A20" s="5" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="101"/>
+    </row>
+    <row r="23" spans="1:9" ht="18">
+      <c r="A23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10" ht="18">
-      <c r="A21" s="24" t="s">
+    </row>
+    <row r="24" spans="1:9" ht="18">
+      <c r="A24" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B24" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="22" t="s">
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="18">
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E25" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F25" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="22" t="s">
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" ht="18">
+      <c r="A26" s="102"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="22" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F26" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17">
-      <c r="A24" s="32" t="s">
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="17">
+      <c r="A27" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B27" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="17">
-      <c r="A25" s="32"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="7" t="s">
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" thickBot="1">
+      <c r="A28" s="104"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F28" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17">
-      <c r="A26" s="32"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="7" t="s">
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" thickBot="1">
+      <c r="A29" s="90"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F29" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A28" s="27" t="s">
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1"/>
+    <row r="31" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A31" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="29"/>
-    </row>
-    <row r="29" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A32" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H32" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="29"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A30" s="24" t="s">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A33" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B33" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C33" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D33" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E33" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F33" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G33" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H33" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="7" t="s">
+      <c r="I33" s="97"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.5" customHeight="1" thickBot="1">
+      <c r="A34" s="98"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G34" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H34" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A32" s="32" t="s">
+      <c r="I34" s="98"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A35" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B35" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C35" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D35" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E35" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F35" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G35" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H35" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="7" t="s">
+      <c r="I35" s="86"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.5" customHeight="1" thickBot="1">
+      <c r="A36" s="87"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G36" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H36" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A34" s="32" t="s">
+      <c r="I36" s="87"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A37" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B37" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C37" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D37" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E37" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F37" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G37" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="7" t="s">
+      <c r="I37" s="86"/>
+    </row>
+    <row r="38" spans="1:9" ht="19" thickBot="1">
+      <c r="A38" s="88"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H38" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.5" customHeight="1">
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.5" customHeight="1">
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.5" customHeight="1">
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.5" customHeight="1">
+      <c r="I38" s="88"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.5" customHeight="1">
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:10" ht="14.5" customHeight="1">
+    <row r="41" spans="1:9" ht="14.5" customHeight="1">
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1">
+    <row r="42" spans="1:9" ht="14.5" customHeight="1">
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:9" ht="14.5" customHeight="1">
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:9" ht="14.5" customHeight="1">
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:9" ht="15" customHeight="1">
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
+    <row r="46" spans="1:9">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="I30:I31"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A22:G22"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4020,7 +4367,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4030,23 +4377,23 @@
     <col min="5" max="5" width="25.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.25" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4064,414 +4411,370 @@
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="17">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="30" t="s">
-        <v>364</v>
-      </c>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="17">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="30" t="s">
-        <v>364</v>
-      </c>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="30" t="s">
-        <v>364</v>
-      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="17">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="30" t="s">
-        <v>364</v>
-      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="30" t="s">
-        <v>364</v>
-      </c>
+      <c r="F7" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="30" t="s">
-        <v>364</v>
-      </c>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="57"/>
+      <c r="E9" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="28"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
     </row>
     <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="18">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="23" t="s">
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:8" ht="19" thickBot="1">
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="23" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="30" t="s">
-        <v>364</v>
-      </c>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="23" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="30" t="s">
-        <v>364</v>
-      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="67"/>
+      <c r="E16" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17">
-      <c r="A17" s="36"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="17" t="s">
+      <c r="G16" s="68"/>
+      <c r="H16" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickBot="1">
+      <c r="A17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17">
-      <c r="A18" s="36"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="17" t="s">
+      <c r="G17" s="69"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" thickBot="1">
+      <c r="A18" s="116"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="76" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="77"/>
+      <c r="E18" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="28"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" thickBot="1">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="17">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="28"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="36">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" ht="17">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="28"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:8" ht="17">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="28"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:8" ht="17">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="28"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:8" ht="17">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4490,10 +4793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A3" sqref="A3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -4504,24 +4807,22 @@
     <col min="6" max="6" width="32.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4539,214 +4840,185 @@
       <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18">
-      <c r="A3" s="23" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="23" t="s">
+      <c r="G3" s="65"/>
+      <c r="H3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17">
-      <c r="A5" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" ht="17">
-      <c r="A8" s="35" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1">
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9" ht="18">
-      <c r="A9" s="16" t="s">
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:8" ht="18">
+      <c r="A9" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" ht="18">
-      <c r="A10" s="24" t="s">
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="1:8" ht="18">
+      <c r="A10" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="22" t="s">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="18">
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="22" t="s">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="18">
+      <c r="A12" s="102"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="22" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17">
-      <c r="A13" s="32" t="s">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="2"/>
@@ -4756,144 +5028,116 @@
       <c r="F13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="32"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="7" t="s">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" thickBot="1">
+      <c r="A14" s="104"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17">
-      <c r="A15" s="32"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="7" t="s">
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" thickBot="1">
+      <c r="A15" s="90"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="27" t="s">
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1"/>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9" ht="36">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+    </row>
+    <row r="18" spans="1:8" ht="36">
+      <c r="A18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="17">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" ht="17">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="17">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" ht="17">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="17">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" ht="17">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="17">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4912,10 +5156,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -4926,24 +5170,22 @@
     <col min="6" max="6" width="32.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4961,367 +5203,296 @@
       <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="6" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17">
-      <c r="A12" s="6" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="6" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17">
-      <c r="A15" s="6" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="6" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="27" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1"/>
+    <row r="19" spans="1:8" ht="17">
+      <c r="A19" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+    </row>
+    <row r="20" spans="1:8" ht="18">
+      <c r="A20" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5339,81 +5510,67 @@
       <c r="F20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="24" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="18">
+      <c r="A21" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="22" t="s">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="18">
+      <c r="A22" s="102"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="22" t="s">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="18">
+      <c r="A23" s="102"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17">
-      <c r="A24" s="32" t="s">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="17">
+      <c r="A24" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="2"/>
@@ -5423,16 +5580,12 @@
       <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17">
-      <c r="A25" s="32"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="7" t="s">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="17">
+      <c r="A25" s="104"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="2"/>
@@ -5442,125 +5595,101 @@
       <c r="F25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17">
-      <c r="A26" s="32"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="7" t="s">
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" thickBot="1">
+      <c r="A26" s="90"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" ht="17">
-      <c r="A28" s="27" t="s">
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1"/>
+    <row r="28" spans="1:8" ht="17">
+      <c r="A28" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" ht="36">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+    </row>
+    <row r="29" spans="1:8" ht="36">
+      <c r="A29" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" ht="17">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="17">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" ht="17">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="17">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" ht="17">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="17">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:9" ht="17">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="17">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5579,10 +5708,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -5594,25 +5723,21 @@
     <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -5630,447 +5755,375 @@
       <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17">
-      <c r="A3" s="15" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17">
-      <c r="A4" s="15" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" ht="17">
+      <c r="A4" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17">
-      <c r="A5" s="15" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" thickBot="1">
+      <c r="A6" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="1:8" ht="18">
+      <c r="A8" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:8" ht="18">
+      <c r="A9" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="1:8" ht="18">
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17">
-      <c r="A6" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17">
-      <c r="A7" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:10" ht="18">
-      <c r="A8" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="F10" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+    </row>
+    <row r="11" spans="1:8" ht="18">
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="68"/>
+      <c r="H12" s="61"/>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="115"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="61"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" thickBot="1">
+      <c r="A14" s="116"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="72"/>
+      <c r="H14" s="61"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+    </row>
+    <row r="17" spans="1:9" ht="37" thickBot="1">
+      <c r="A17" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" ht="18">
-      <c r="A9" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
+      <c r="C17" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A18" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" customHeight="1" thickBot="1">
+      <c r="A19" s="96"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="23" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A20" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17">
-      <c r="A12" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17">
-      <c r="A13" s="36"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
+      <c r="H20" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" customHeight="1" thickBot="1">
+      <c r="A21" s="90"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17">
-      <c r="A14" s="36"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" ht="17">
-      <c r="A16" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" ht="36">
-      <c r="A17" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A18:A19"/>
@@ -6084,6 +6137,12 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6092,10 +6151,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6109,25 +6168,21 @@
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -6145,639 +6200,483 @@
       <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="49" customFormat="1" ht="18">
+      <c r="A9" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="1:7" s="49" customFormat="1" ht="18">
+      <c r="A10" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" s="49" customFormat="1" ht="18">
+      <c r="A11" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17">
+      <c r="A17" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="17">
+      <c r="A18" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17">
+      <c r="A20" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17">
+      <c r="A21" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17">
+      <c r="A22" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17">
+      <c r="A23" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="G23" s="84" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17">
-      <c r="A3" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17">
-      <c r="A4" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17">
-      <c r="A5" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17">
-      <c r="A6" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17">
-      <c r="A7" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17">
-      <c r="A8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="18">
-      <c r="A9" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="18">
-      <c r="A10" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="18">
-      <c r="A11" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17">
-      <c r="A12" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17">
-      <c r="A13" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17">
-      <c r="A14" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17">
-      <c r="A15" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17">
-      <c r="A16" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17">
-      <c r="A17" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17">
-      <c r="A18" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17">
-      <c r="A19" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17">
-      <c r="A20" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17">
-      <c r="A21" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17">
-      <c r="A22" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17">
-      <c r="A23" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="17">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-    </row>
-    <row r="30" spans="1:10" ht="17">
-      <c r="A30" s="27" t="s">
+    <row r="24" spans="1:7" ht="17">
+      <c r="A24" s="19"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="17">
+      <c r="A25" s="19"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" ht="17">
+      <c r="A26" s="19"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" thickBot="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1"/>
+    <row r="30" spans="1:7" ht="17">
+      <c r="A30" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-    </row>
-    <row r="31" spans="1:10" ht="18">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="101"/>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -6795,85 +6694,67 @@
       <c r="F31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-    </row>
-    <row r="32" spans="1:10" ht="18">
-      <c r="A32" s="24" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="18">
+      <c r="A32" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="18">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="22" t="s">
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" ht="18">
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="22" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="18">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="22" t="s">
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" ht="18">
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="17">
-      <c r="A35" s="32" t="s">
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" ht="17">
+      <c r="A35" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="2"/>
@@ -6883,17 +6764,12 @@
       <c r="F35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="17">
-      <c r="A36" s="32"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="7" t="s">
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" ht="17">
+      <c r="A36" s="104"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="2"/>
@@ -6903,61 +6779,39 @@
       <c r="F36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17">
-      <c r="A37" s="32"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="7" t="s">
+      <c r="G36" s="40"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" thickBot="1">
+      <c r="A37" s="90"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A39" s="27" t="s">
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1"/>
+    <row r="39" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A39" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="94"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A40" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -6978,85 +6832,78 @@
       <c r="G40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="22" t="s">
         <v>108</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="28"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="28"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="28"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="28"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="28"/>
-    </row>
-    <row r="45" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="28"/>
-    </row>
-    <row r="46" spans="1:10" ht="17">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="28"/>
-    </row>
-    <row r="48" spans="1:10" ht="14.5" customHeight="1">
+    </row>
+    <row r="41" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A41" s="97"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="97"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A42" s="98"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="98"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A43" s="86"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="86"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A44" s="87"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="87"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A45" s="86"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="86"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" thickBot="1">
+      <c r="A46" s="88"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="88"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.5" customHeight="1">
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -7103,6 +6950,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
@@ -7115,19 +6975,6 @@
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7137,10 +6984,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -7151,24 +6998,22 @@
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -7186,365 +7031,297 @@
       <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17">
-      <c r="A3" s="15" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17">
-      <c r="A4" s="15" t="s">
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="17">
+      <c r="A4" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17">
-      <c r="A5" s="15" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17">
-      <c r="A6" s="15" t="s">
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17">
-      <c r="A7" s="15" t="s">
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="57"/>
+      <c r="E9" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="15" t="s">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="21" t="s">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="57" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17">
-      <c r="A12" s="15" t="s">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="56" t="s">
         <v>319</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17">
-      <c r="A13" s="15" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="15" t="s">
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="57"/>
+      <c r="F14" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17">
-      <c r="A15" s="15" t="s">
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="G15" s="36"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="27" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1"/>
+    <row r="19" spans="1:8" ht="17">
+      <c r="A19" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+    </row>
+    <row r="20" spans="1:8" ht="18">
+      <c r="A20" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -7562,81 +7339,67 @@
       <c r="F20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="24" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="18">
+      <c r="A21" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="55"/>
+      <c r="E21" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="22" t="s">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="18">
+      <c r="A22" s="102"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="22" t="s">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="18">
+      <c r="A23" s="102"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17">
-      <c r="A24" s="32" t="s">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="17">
+      <c r="A24" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="2"/>
@@ -7646,16 +7409,12 @@
       <c r="F24" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17">
-      <c r="A25" s="32"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="7" t="s">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="17">
+      <c r="A25" s="104"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="2"/>
@@ -7665,83 +7424,63 @@
       <c r="F25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17">
-      <c r="A26" s="32"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="7" t="s">
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" thickBot="1">
+      <c r="A26" s="90"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="1:9" ht="17">
-      <c r="A28" s="27" t="s">
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1"/>
+    <row r="28" spans="1:8" ht="17">
+      <c r="A28" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="1:9" ht="36">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+    </row>
+    <row r="29" spans="1:8" ht="36">
+      <c r="A29" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I29" s="28"/>
-    </row>
-    <row r="30" spans="1:9" ht="17">
+    </row>
+    <row r="30" spans="1:8" ht="17">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -7750,9 +7489,8 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:9" ht="17">
+    </row>
+    <row r="31" spans="1:8" ht="17">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -7761,9 +7499,8 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="28"/>
-    </row>
-    <row r="32" spans="1:9" ht="17">
+    </row>
+    <row r="32" spans="1:8" ht="17">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -7772,9 +7509,8 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="28"/>
-    </row>
-    <row r="33" spans="1:9" ht="17">
+    </row>
+    <row r="33" spans="1:8" ht="17">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -7783,7 +7519,11 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="28"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="59" t="s">
+        <v>344</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7798,4 +7538,18 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>